--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,8 +1494,6 @@
           <t xml:space="preserve">Телефон не указан </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>https://yandex.by/maps/org/stolovaya/128724765250/</t>
@@ -1523,8 +1521,6 @@
           <t xml:space="preserve">Телефон не указан </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>https://yandex.by/maps/org/stolovaya/9681642181/</t>
@@ -1552,8 +1548,6 @@
           <t xml:space="preserve">Телефон не указан </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
           <t>https://yandex.by/maps/org/kafe/106410075413/</t>
@@ -1581,8 +1575,6 @@
           <t xml:space="preserve">Телефон не указан </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>https://yandex.by/maps/org/pomidorkin/235089555013/</t>
@@ -1591,6 +1583,381 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>38.667350, 55.323261</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Одиссея</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Воскресенск, Московская ул., 33, стр. 1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КОМПЛЕКС ФИНСКАЯ САУНА
++7 (985) 808-83-06 КЛУБ ОДИССЕЯ
++7 (985) 167-16-40 КОМПЛЕКС РУССКАЯ БАНЯ
++7 (985) 490-18-15 </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>bpk-odyssey.ru</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://vk.com/baniodysseya </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/odisseya/1052955407/</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>38.842307, 55.298622</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>На Москворецкой</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Воскресенск, Рабочая ул., 122</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (901) 469-52-97 </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>bestsauny.ru</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://viber.click/79856472651 https://wa.me/79856472651 </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/na_moskvoretskoy/42495516347/</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>38.842307, 55.298622</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Русская Баня</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Воскресенск, Советская ул., 7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (916) 807-97-17 +7 (917) 535-17-89 </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/russkaya_banya/15621996699/</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>38.842307, 55.298622</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Воскресенские Бани</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Воскресенск, микрорайон Фетровой фабрики, ул. Быковского, 68А</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (985) 167-22-97 </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>sauna-vsk.ru</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://vk.com/voskresenskie_bani </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/voskresenskiye_bani/108148473023/</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>38.842307, 55.298622</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Славная Банька</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>село Константиново, территория Славный, 240/1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АДМИНИСТРАТОР
++7 (962) 363-71-70 </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>rent-house-vsk.ru</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://t.me/slavbanya https://vk.com/banyavsk https://wa.me/79623637170 </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/slavnaya_banka/239626954368/</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>38.604972, 55.343403</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Русские бани</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Воскресенск, микрорайон Лопатинский, ул. Андреса, 4А</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (916) 522-96-39 </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/russkiye_bani/21801705419/</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>38.604972, 55.343403</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Хорловские Бани</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>рабочий посёлок Хорлово, Октябрьская ул., 9</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (901) 417-09-69 </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>bestsauny.ru</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://wa.me/79030164015 </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/khorlovskiye_bani/1036925430/</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>38.812994, 55.322465</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Общественная баня</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Воскресенск, ул. Мичурина, 1А</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Телефон не указан </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/obshchestvennaya_banya/230872594953/</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>38.812994, 55.322465</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Фьорды</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>село Федино, 2-я Производственная ул., с4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (985) 237-78-68 </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://viber.click/89852377868 https://wa.me/79852377868 </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/fyordy/175602247803/</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>38.609966, 55.309364</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Баня</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Воскресенск, микрорайон Цемгигант, ул. Карла Маркса, 13А</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Телефон не указан </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/banya/211270753081/</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>38.609966, 55.309364</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ёлочка</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>д. Маришкино, Спасская ул., 4А</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7 (901) 417-72-66 </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>elochkahotel.ru</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://viber.click/79852830900 https://vk.com/elochka_hotel https://wa.me/79852830900 </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/org/yolochka/140908415259/</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>38.609966, 55.309364</t>
         </is>
       </c>
     </row>
